--- a/DDF/Phase2/TY_04/Applying_Scheme/AS_Excel_Data.xlsx
+++ b/DDF/Phase2/TY_04/Applying_Scheme/AS_Excel_Data.xlsx
@@ -90,9 +90,6 @@
     <t>ONLY</t>
   </si>
   <si>
-    <t>SIH: 2000</t>
-  </si>
-  <si>
     <t>Min : 3</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Slab3</t>
   </si>
   <si>
-    <t>SIH: 1999</t>
-  </si>
-  <si>
     <t>Min : 2</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Slab1</t>
   </si>
   <si>
-    <t>SIH: 2001</t>
-  </si>
-  <si>
     <t>SIH: 1997</t>
   </si>
   <si>
@@ -250,13 +241,22 @@
   </si>
   <si>
     <t>Delivery Final Summary</t>
+  </si>
+  <si>
+    <t>SIH: 8500</t>
+  </si>
+  <si>
+    <t>SIH: 8499</t>
+  </si>
+  <si>
+    <t>SIH: 8501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +269,13 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,13 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,34 +624,34 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -660,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -686,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -712,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -738,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -755,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -769,8 +777,8 @@
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
+      <c r="I6" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
@@ -799,13 +807,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
-        <v>27</v>
+      <c r="I7" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -834,13 +842,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -855,10 +863,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
         <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -872,22 +880,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
-        <v>31</v>
+      <c r="I9" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -907,22 +915,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -931,21 +939,21 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -962,7 +970,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -971,12 +979,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -985,15 +993,15 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1002,15 +1010,15 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1019,12 +1027,12 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1033,21 +1041,21 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1055,7 +1063,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1064,12 +1072,12 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1078,12 +1086,12 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1092,15 +1100,15 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1114,30 +1122,30 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1148,10 +1156,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1162,10 +1170,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1176,10 +1184,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -1187,10 +1195,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1201,7 +1209,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1212,7 +1220,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1226,10 +1234,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
